--- a/medicine/Enfance/Hansjörg_Martin/Hansjörg_Martin.xlsx
+++ b/medicine/Enfance/Hansjörg_Martin/Hansjörg_Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hansj%C3%B6rg_Martin</t>
+          <t>Hansjörg_Martin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hansjörg Martin, né le 1er novembre 1920 à Leipzig, Land de Saxe, à l'époque dans la République de Weimar, et mort le 11 mars 1999 à Majorque, aux Îles Baléares, est un auteur allemand de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hansj%C3%B6rg_Martin</t>
+          <t>Hansjörg_Martin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études, il s’inscrit à des cours d’arts appliqués pour devenir illustrateur et graphiste. Pendant la Deuxième Guerre mondiale, il est incorporé dans l’infanterie à partir de 1941 et envoyé aux Pays-Bas, puis sur le Front de l’Est. Après le conflit, il exerce, parfois simultanément, divers petits métiers : peintre, dessinateur, décorateur de vitrines, décorateur de théâtre, instituteur, proviseur de collège, clown de cirque, agent publicitaire. En 1953, il devient rédacteur d’un périodique, puis, de 1960 à 1963, scripteur pour le cinéma et pour la télévision. Il est écrivain à plein temps à partir de 1962.
 Il amorce sa carrière littéraire dès 1951 par la publication d’ouvrages de littérature d’enfance et de jeunesse qui obtiennent un succès considérable, certains étant même choisis comme livres éducatifs par le ministère de l'éducation allemand. Une classe de jeunes élèves participe à la rédaction de Spiele auf Spiekeroog (1973), un ouvrage illustré par des photographies de Thomas Martin.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hansj%C3%B6rg_Martin</t>
+          <t>Hansjörg_Martin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans policiers
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gefährliche Neugier (1965) Publié en français sous le titre Les acteurs n’aiment pas mourir, Paris, Librairie des Champs-Élysées, Le Masque no 1247, 1972 ; réédition, Paris, Librairie des Champs-Élysées, Le Club des Masques no 383, 1979
 Kein Schnaps für Tamara (1966)
 Einer fehlt beim Kurkonzert (1966)
@@ -579,7 +602,47 @@
 Apollonia muss sterben (1992)
 Mitgegangen, mitgefangen, mitgeh... (1996)
 Ein Rabe auf der Schulter (1998)
-Série Jocotobi de littérature d’enfance et de jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hansjörg_Martin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hansj%C3%B6rg_Martin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Jocotobi de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Die Jagd nach den Goldmasken (1989)
 Ein Drachen und ein Schatz (1989)
 Gefahr in den Ferien (1989)
@@ -595,7 +658,47 @@
 Zirkus, Zoff und Zottelbären (1991)
 Die rätselhafte Fracht der St. Maria (1991)
 Tanz um Tanja (1992)
-Autres romans de littérature d’enfance et de jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hansjörg_Martin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hansj%C3%B6rg_Martin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Toms und Tobbys tolle Trampfahrt (1951)
 Till mit dem Bauchladen (1952)
 Der Sieg der Sieben (1953)
@@ -623,14 +726,83 @@
 Zwischen Mallorca und Tanger. Abenteuer des ehrlichen Schmugglers Tomeo (1992)
 Wipps ist weg! Hundstage mit Hindernissen (1994)
 Ein Pony auf dem Sofa (1997)
-Recueils de nouvelles policières
-Tod im Dutzend (1972)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hansjörg_Martin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hansj%C3%B6rg_Martin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles policières</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tod im Dutzend (1972)
 Blut an der Manschette (1974)
 Die lange, große Wut (1977)
 Dreck am Stecken (1979)
-Seine besten Stories (1989)
-Autres publications
-Bewölkte Vergangenheit. Eine Kindheit im Dritten Reich (1986)
+Seine besten Stories (1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hansjörg_Martin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hansj%C3%B6rg_Martin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bewölkte Vergangenheit. Eine Kindheit im Dritten Reich (1986)
 Querbeet durch Tag und Traum. Texte aus fast fünfzig Jahren (1990)
 Zwölf Monate Mallorca. Impressionen von der Baleareninsel (1994)
 „Ins Ohr gesagt“: Gedanken und Geschichten zu Gestalten und Gedichten (1995)
@@ -638,31 +810,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hansj%C3%B6rg_Martin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hansjörg_Martin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hansj%C3%B6rg_Martin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptations cinématographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1968 : Tamara (de), film allemand de Hansjürgen Pohland (de), d’après le roman Kein Schnaps für Tamara (1966). Dans ce film, Hansjörg Martin fait une courte apparition dans le rôle d’un reporter.
 1968 : Einer fehlt beim Kurkonzert (de)
@@ -670,62 +844,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hansj%C3%B6rg_Martin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hansjörg_Martin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hansj%C3%B6rg_Martin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ordre du Mérite de la République fédérale d'Allemagne 1986
 Prix Friedrich-Glauser (de) 1988 pour l’ensemble de son œuvre</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hansj%C3%B6rg_Martin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hansjörg_Martin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hansj%C3%B6rg_Martin</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 301.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 316.</t>
